--- a/individual_case_outputs/avey/423.xlsx
+++ b/individual_case_outputs/avey/423.xlsx
@@ -571,7 +571,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>urge urinary incontinence</t>
+          <t>mixed urinary incontinence</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
